--- a/Business_Domain_Matrix.xlsx
+++ b/Business_Domain_Matrix.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5647bfa366408cf9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EB02168-5D2D-4755-8C9E-0E5917557454}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-5330" windowWidth="38620" windowHeight="21100" xr2:uid="{CBD37D12-D4F9-46AC-8EFB-11EAA1AB43A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CBD37D12-D4F9-46AC-8EFB-11EAA1AB43A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>Scrum</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Mobius loop</t>
   </si>
   <si>
-    <t>Retospectives</t>
-  </si>
-  <si>
     <t>Self Management</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Soviocracy / Holacracy</t>
   </si>
   <si>
-    <t>Mangement 3.0</t>
-  </si>
-  <si>
     <t>Enterprise Visibility    Rooms / Obeya Rooms</t>
   </si>
   <si>
@@ -228,13 +222,22 @@
   </si>
   <si>
     <t>Practice, Methods, and frameworks</t>
+  </si>
+  <si>
+    <t>GNU GENERAL PUBLIC LICENSE</t>
+  </si>
+  <si>
+    <t>Retrospectives</t>
+  </si>
+  <si>
+    <t>Management 3.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +257,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF1F2328"/>
+      <name val="Var(--fontStack-monospace, ui-m"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -340,6 +355,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,13 +693,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9672E2-4016-4F3A-92FE-4F16AA5080CF}">
-  <dimension ref="A2:N46"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
@@ -703,7 +723,7 @@
     <col min="22" max="22" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -717,9 +737,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -734,34 +754,34 @@
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="K3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14" hidden="1">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -776,9 +796,9 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="3"/>
@@ -796,9 +816,9 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="3" t="s">
@@ -816,9 +836,9 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
@@ -838,9 +858,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
@@ -860,7 +880,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" hidden="1">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -880,9 +900,9 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" hidden="1">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
@@ -900,7 +920,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" hidden="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -922,9 +942,9 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
@@ -942,9 +962,9 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
@@ -966,9 +986,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
@@ -986,7 +1006,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,9 +1026,9 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
@@ -1028,9 +1048,9 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
@@ -1048,9 +1068,9 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
@@ -1074,9 +1094,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
@@ -1094,9 +1114,9 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
@@ -1114,7 +1134,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1134,9 +1154,9 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
@@ -1156,9 +1176,9 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -1182,9 +1202,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="14" hidden="1" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -1206,9 +1226,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
+    <row r="25" spans="1:14">
+      <c r="A25" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="3" t="s">
@@ -1224,15 +1244,15 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
@@ -1250,7 +1270,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1270,7 +1290,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1290,15 +1310,15 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>2</v>
@@ -1318,9 +1338,9 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
@@ -1340,9 +1360,9 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="3" t="s">
@@ -1360,9 +1380,9 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="3" t="s">
@@ -1384,9 +1404,9 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" hidden="1">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
@@ -1408,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" hidden="1">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,9 +1452,9 @@
       </c>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="3" t="s">
@@ -1454,9 +1474,9 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
@@ -1478,9 +1498,9 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
@@ -1498,9 +1518,9 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="3" t="s">
@@ -1530,9 +1550,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
@@ -1552,9 +1572,9 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
@@ -1572,9 +1592,9 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
@@ -1596,9 +1616,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
@@ -1616,9 +1636,9 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
@@ -1642,9 +1662,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -1664,9 +1684,9 @@
       </c>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
@@ -1684,9 +1704,9 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -1704,8 +1724,19 @@
       </c>
       <c r="N46" s="7"/>
     </row>
+    <row r="47" spans="1:14" hidden="1">
+      <c r="A47" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:N46" xr:uid="{0B9672E2-4016-4F3A-92FE-4F16AA5080CF}"/>
+  <autoFilter ref="A3:N47" xr:uid="{0B9672E2-4016-4F3A-92FE-4F16AA5080CF}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:V46">
     <sortCondition ref="A5:A46"/>
   </sortState>

--- a/Business_Domain_Matrix.xlsx
+++ b/Business_Domain_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5647bfa366408cf9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EB02168-5D2D-4755-8C9E-0E5917557454}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C07A6BC5-0D1B-4053-A3DF-7E5577EEF6A2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CBD37D12-D4F9-46AC-8EFB-11EAA1AB43A8}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Play</t>
   </si>
   <si>
-    <t>Soviocracy / Holacracy</t>
-  </si>
-  <si>
     <t>Enterprise Visibility    Rooms / Obeya Rooms</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Management 3.0</t>
+  </si>
+  <si>
+    <t>Sociocracy / Holacracy</t>
   </si>
 </sst>
 </file>
@@ -374,6 +374,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,7 +701,7 @@
   <dimension ref="A2:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -739,7 +743,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -754,31 +758,31 @@
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1">
@@ -798,7 +802,7 @@
     </row>
     <row r="5" spans="1:14" hidden="1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="3"/>
@@ -838,7 +842,7 @@
     </row>
     <row r="7" spans="1:14" hidden="1">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
@@ -860,7 +864,7 @@
     </row>
     <row r="8" spans="1:14" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
@@ -902,7 +906,7 @@
     </row>
     <row r="10" spans="1:14" hidden="1">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
@@ -944,7 +948,7 @@
     </row>
     <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
@@ -964,7 +968,7 @@
     </row>
     <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
@@ -988,7 +992,7 @@
     </row>
     <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
@@ -1028,7 +1032,7 @@
     </row>
     <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
@@ -1050,7 +1054,7 @@
     </row>
     <row r="17" spans="1:14" hidden="1">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
@@ -1070,7 +1074,7 @@
     </row>
     <row r="18" spans="1:14" hidden="1">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
@@ -1096,7 +1100,7 @@
     </row>
     <row r="19" spans="1:14" hidden="1">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
@@ -1116,7 +1120,7 @@
     </row>
     <row r="20" spans="1:14" hidden="1">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
@@ -1156,7 +1160,7 @@
     </row>
     <row r="22" spans="1:14" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
@@ -1178,7 +1182,7 @@
     </row>
     <row r="23" spans="1:14" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -1204,7 +1208,7 @@
     </row>
     <row r="24" spans="1:14" ht="14" hidden="1" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -1228,7 +1232,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="3" t="s">
@@ -1244,7 +1248,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -1252,7 +1256,7 @@
     </row>
     <row r="26" spans="1:14" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
@@ -1310,7 +1314,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -1318,7 +1322,7 @@
     </row>
     <row r="29" spans="1:14" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>2</v>
@@ -1340,7 +1344,7 @@
     </row>
     <row r="30" spans="1:14" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
@@ -1382,7 +1386,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="3" t="s">
@@ -1406,7 +1410,7 @@
     </row>
     <row r="33" spans="1:14" hidden="1">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
@@ -1476,7 +1480,7 @@
     </row>
     <row r="36" spans="1:14" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
@@ -1500,7 +1504,7 @@
     </row>
     <row r="37" spans="1:14" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
@@ -1520,7 +1524,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="3" t="s">
@@ -1552,7 +1556,7 @@
     </row>
     <row r="39" spans="1:14" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
@@ -1574,7 +1578,7 @@
     </row>
     <row r="40" spans="1:14" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
@@ -1594,7 +1598,7 @@
     </row>
     <row r="41" spans="1:14" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
@@ -1618,7 +1622,7 @@
     </row>
     <row r="42" spans="1:14" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
@@ -1638,7 +1642,7 @@
     </row>
     <row r="43" spans="1:14" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
@@ -1664,7 +1668,7 @@
     </row>
     <row r="44" spans="1:14" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -1686,7 +1690,7 @@
     </row>
     <row r="45" spans="1:14" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
@@ -1706,7 +1710,7 @@
     </row>
     <row r="46" spans="1:14" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -1726,7 +1730,7 @@
     </row>
     <row r="47" spans="1:14" hidden="1">
       <c r="A47" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Business_Domain_Matrix.xlsx
+++ b/Business_Domain_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5647bfa366408cf9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBB77C45-C12D-4E2C-9CC1-5F8821830BEB}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{232EF521-2FCB-427C-8B2E-DF59ADD6A132}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CBD37D12-D4F9-46AC-8EFB-11EAA1AB43A8}"/>
   </bookViews>
@@ -128,12 +128,6 @@
     <t>System Thinking</t>
   </si>
   <si>
-    <t>Theory of Constriats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stratefic Agility </t>
-  </si>
-  <si>
     <t>Lean Startup</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t>Personal OKRs</t>
   </si>
   <si>
-    <t>Ownership &amp; Acctability</t>
-  </si>
-  <si>
     <t>Structural Agaility</t>
   </si>
   <si>
@@ -228,6 +219,15 @@
   </si>
   <si>
     <t>Spiral Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Agility </t>
+  </si>
+  <si>
+    <t>Theory of Constraints</t>
+  </si>
+  <si>
+    <t>Ownership &amp; Accountability</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -459,7 +459,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -494,6 +493,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +838,7 @@
   <dimension ref="A2:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -865,77 +867,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15" thickBot="1">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>55</v>
+      <c r="N3" s="38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" hidden="1">
       <c r="A5" s="1" t="s">
@@ -979,7 +981,7 @@
     </row>
     <row r="7" spans="1:14" hidden="1">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2"/>
@@ -1001,7 +1003,7 @@
     </row>
     <row r="8" spans="1:14" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="2"/>
@@ -1042,8 +1044,8 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" hidden="1">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
+      <c r="A10" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="2"/>
@@ -1085,7 +1087,7 @@
     </row>
     <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
@@ -1105,7 +1107,7 @@
     </row>
     <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
@@ -1148,26 +1150,26 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" hidden="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1190,28 +1192,28 @@
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" hidden="1">
-      <c r="A17" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="A17" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" hidden="1">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
+      <c r="A18" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
@@ -1296,8 +1298,8 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" hidden="1">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
+      <c r="A22" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -1317,9 +1319,9 @@
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" hidden="1">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
+    <row r="23" spans="1:14">
+      <c r="A23" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
@@ -1343,9 +1345,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14" hidden="1" customHeight="1">
+    <row r="24" spans="1:14" ht="14" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
@@ -1367,9 +1369,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1">
+    <row r="25" spans="1:14">
       <c r="A25" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="2" t="s">
@@ -1385,7 +1387,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -1393,7 +1395,7 @@
     </row>
     <row r="26" spans="1:14" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
@@ -1431,7 +1433,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1451,7 +1453,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -1480,8 +1482,8 @@
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" hidden="1">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
+      <c r="A30" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
@@ -1502,28 +1504,28 @@
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" hidden="1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="1" t="s">
-        <v>58</v>
+      <c r="B31" s="15"/>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" hidden="1">
+      <c r="A32" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="2" t="s">
@@ -1545,31 +1547,31 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" hidden="1">
-      <c r="A33" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1">
+    <row r="33" spans="1:14">
+      <c r="A33" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1615,31 +1617,31 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14" hidden="1">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:14">
+      <c r="A36" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="B36" s="15"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" hidden="1">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -1660,8 +1662,8 @@
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
+      <c r="A38" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="2" t="s">
@@ -1691,9 +1693,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16">
-      <c r="A39" s="40" t="s">
-        <v>62</v>
+    <row r="39" spans="1:14" ht="16" hidden="1">
+      <c r="A39" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
@@ -1714,27 +1716,27 @@
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" ht="16" hidden="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-    </row>
-    <row r="41" spans="1:14" ht="16">
-      <c r="A41" s="40" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="1:14" ht="16" hidden="1">
+      <c r="A41" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="5"/>
@@ -1758,28 +1760,28 @@
       </c>
     </row>
     <row r="42" spans="1:14" hidden="1">
-      <c r="A42" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="10" t="s">
-        <v>29</v>
+      <c r="A42" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="1:14" hidden="1">
+      <c r="A43" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
@@ -1804,30 +1806,30 @@
       </c>
     </row>
     <row r="44" spans="1:14" hidden="1">
-      <c r="A44" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N44" s="22"/>
+      <c r="A44" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="20"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="21"/>
     </row>
     <row r="45" spans="1:14" hidden="1">
-      <c r="A45" s="1" t="s">
-        <v>36</v>
+      <c r="A45" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
@@ -1847,7 +1849,7 @@
     </row>
     <row r="46" spans="1:14" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
@@ -1867,12 +1869,12 @@
     </row>
     <row r="47" spans="1:14" hidden="1">
       <c r="A47" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:N47" xr:uid="{0B9672E2-4016-4F3A-92FE-4F16AA5080CF}">
-    <filterColumn colId="6">
+    <filterColumn colId="10">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/Business_Domain_Matrix.xlsx
+++ b/Business_Domain_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5647bfa366408cf9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{232EF521-2FCB-427C-8B2E-DF59ADD6A132}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA5CEF1-2BAF-411C-90F9-633F66FC8B7F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CBD37D12-D4F9-46AC-8EFB-11EAA1AB43A8}"/>
   </bookViews>
@@ -185,15 +185,9 @@
     <t>Personal OKRs</t>
   </si>
   <si>
-    <t>Structural Agaility</t>
-  </si>
-  <si>
     <t>Teal Orgs</t>
   </si>
   <si>
-    <t xml:space="preserve">Procewss Agil;ity </t>
-  </si>
-  <si>
     <t>Scrum At scale</t>
   </si>
   <si>
@@ -228,6 +222,12 @@
   </si>
   <si>
     <t>Ownership &amp; Accountability</t>
+  </si>
+  <si>
+    <t>Structural Agility</t>
+  </si>
+  <si>
+    <t>Procewss Agility</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -493,9 +493,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,7 +835,7 @@
   <dimension ref="A2:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -882,7 +879,7 @@
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>3</v>
@@ -897,13 +894,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>35</v>
@@ -912,16 +909,16 @@
         <v>37</v>
       </c>
       <c r="K3" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="37" t="s">
+      <c r="N3" s="38" t="s">
         <v>50</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1">
@@ -1044,7 +1041,7 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" hidden="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="5"/>
@@ -1192,7 +1189,7 @@
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" hidden="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="23"/>
@@ -1212,7 +1209,7 @@
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" hidden="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="5"/>
@@ -1298,7 +1295,7 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" hidden="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="5"/>
@@ -1319,8 +1316,8 @@
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:14" hidden="1">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="5"/>
@@ -1345,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14" customHeight="1">
+    <row r="24" spans="1:14" ht="14" hidden="1" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1369,9 +1366,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="2" t="s">
@@ -1433,7 +1430,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1479,7 @@
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" hidden="1">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="5"/>
@@ -1524,8 +1521,8 @@
       <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:14" hidden="1">
-      <c r="A32" s="40" t="s">
-        <v>55</v>
+      <c r="A32" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="2" t="s">
@@ -1547,7 +1544,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" hidden="1">
       <c r="A33" s="22" t="s">
         <v>44</v>
       </c>
@@ -1571,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" hidden="1">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1592,7 @@
       </c>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" hidden="1">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1617,8 +1614,8 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="42" t="s">
+    <row r="36" spans="1:14" hidden="1">
+      <c r="A36" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="15"/>
@@ -1662,8 +1659,8 @@
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="40" t="s">
-        <v>57</v>
+      <c r="A38" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="2" t="s">
@@ -1695,7 +1692,7 @@
     </row>
     <row r="39" spans="1:14" ht="16" hidden="1">
       <c r="A39" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
@@ -1735,7 +1732,7 @@
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
     </row>
-    <row r="41" spans="1:14" ht="16" hidden="1">
+    <row r="41" spans="1:14" ht="16">
       <c r="A41" s="39" t="s">
         <v>28</v>
       </c>
@@ -1759,9 +1756,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1">
+    <row r="42" spans="1:14">
       <c r="A42" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
@@ -1780,8 +1777,8 @@
       <c r="N42" s="29"/>
     </row>
     <row r="43" spans="1:14" hidden="1">
-      <c r="A43" s="40" t="s">
-        <v>61</v>
+      <c r="A43" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
@@ -1828,7 +1825,7 @@
       <c r="N44" s="21"/>
     </row>
     <row r="45" spans="1:14" hidden="1">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="5"/>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="46" spans="1:14" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
@@ -1869,12 +1866,12 @@
     </row>
     <row r="47" spans="1:14" hidden="1">
       <c r="A47" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:N47" xr:uid="{0B9672E2-4016-4F3A-92FE-4F16AA5080CF}">
-    <filterColumn colId="10">
+    <filterColumn colId="11">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/Business_Domain_Matrix.xlsx
+++ b/Business_Domain_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5647bfa366408cf9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA5CEF1-2BAF-411C-90F9-633F66FC8B7F}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC9C0DF-4F4A-458D-BFF1-AB785FAAACC5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CBD37D12-D4F9-46AC-8EFB-11EAA1AB43A8}"/>
   </bookViews>
@@ -227,7 +227,7 @@
     <t>Structural Agility</t>
   </si>
   <si>
-    <t>Procewss Agility</t>
+    <t>Process Agility</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <dimension ref="A2:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -976,7 +976,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" hidden="1">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" hidden="1">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1208,7 +1208,7 @@
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" hidden="1">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14" hidden="1" customHeight="1">
+    <row r="24" spans="1:14" ht="14" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" hidden="1">
+    <row r="33" spans="1:14">
       <c r="A33" s="22" t="s">
         <v>44</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" hidden="1">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" hidden="1">
       <c r="A42" s="30" t="s">
         <v>48</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
     </row>
-    <row r="43" spans="1:14" hidden="1">
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1871,7 +1871,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:N47" xr:uid="{0B9672E2-4016-4F3A-92FE-4F16AA5080CF}">
-    <filterColumn colId="11">
+    <filterColumn colId="13">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/Business_Domain_Matrix.xlsx
+++ b/Business_Domain_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5647bfa366408cf9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC9C0DF-4F4A-458D-BFF1-AB785FAAACC5}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{802A577A-E626-4D7F-91CF-750483A2CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A234D9B9-735C-4340-9BAC-C82F825FF55E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CBD37D12-D4F9-46AC-8EFB-11EAA1AB43A8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
   <si>
     <t>Scrum</t>
   </si>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -468,9 +468,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -831,11 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9672E2-4016-4F3A-92FE-4F16AA5080CF}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:N47"/>
+  <dimension ref="A2:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -878,74 +875,79 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:14" hidden="1">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -956,21 +958,21 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" hidden="1">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -978,7 +980,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2"/>
@@ -993,98 +995,96 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1">
+      <c r="M7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" hidden="1">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" hidden="1">
+    <row r="10" spans="1:14" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" hidden="1">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" hidden="1">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
@@ -1099,144 +1099,144 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" hidden="1">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" hidden="1">
-      <c r="A15" s="14" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" hidden="1">
-      <c r="A16" s="1" t="s">
+      <c r="B14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" hidden="1">
-      <c r="A17" s="22" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
@@ -1254,16 +1254,16 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1274,29 +1274,31 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
@@ -1304,135 +1306,139 @@
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="N23" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
+    <row r="24" spans="1:14">
+      <c r="A24" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1">
-      <c r="A25" s="9" t="s">
-        <v>54</v>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="J25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" hidden="1">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>2</v>
@@ -1442,235 +1448,237 @@
         <v>2</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="K28" s="4"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" hidden="1">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" hidden="1">
-      <c r="A31" s="14" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" hidden="1">
-      <c r="A32" s="1" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="N33" s="21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" hidden="1">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" hidden="1">
-      <c r="A36" s="14" t="s">
+    <row r="35" spans="1:14">
+      <c r="A35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" hidden="1">
+      <c r="B35" s="15"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="6"/>
+      <c r="K37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="1" t="s">
-        <v>55</v>
+      <c r="N37" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="16">
+      <c r="A38" s="37" t="s">
+        <v>57</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1679,154 +1687,146 @@
         <v>2</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="16" hidden="1">
-      <c r="A39" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="1:14" ht="16" hidden="1">
-      <c r="A40" s="16" t="s">
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" ht="16">
+      <c r="A39" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-    </row>
-    <row r="41" spans="1:14" ht="16">
-      <c r="A41" s="39" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+    </row>
+    <row r="40" spans="1:14" ht="16">
+      <c r="A40" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1">
-      <c r="A42" s="30" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1">
-      <c r="A44" s="22" t="s">
+      <c r="A43" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="N44" s="21"/>
-    </row>
-    <row r="45" spans="1:14" hidden="1">
+      <c r="B43" s="21"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="19"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
@@ -1835,50 +1835,24 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="M45" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" hidden="1">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" hidden="1">
-      <c r="A47" s="8" t="s">
+    <row r="46" spans="1:14">
+      <c r="A46" s="8" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N47" xr:uid="{0B9672E2-4016-4F3A-92FE-4F16AA5080CF}">
-    <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:V46">
-    <sortCondition ref="A5:A46"/>
+  <autoFilter ref="A3:N46" xr:uid="{0B9672E2-4016-4F3A-92FE-4F16AA5080CF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:V45">
+    <sortCondition ref="A4:A45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
